--- a/data/trans_camb/P25_7-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_7-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>14,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-3,3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-7,76</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 13,47</t>
+          <t>-10,47; 25,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 6,52</t>
+          <t>-22,07; 5,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 25,41</t>
+          <t>-5,36; 34,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 27,39</t>
+          <t>-18,15; 14,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 14,56</t>
+          <t>-22,76; 8,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 11,03</t>
+          <t>-19,88; 11,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; 13,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-19,58; 1,61</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 17,39</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,5%</t>
+          <t>-68,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,17%</t>
+          <t>116,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>-9,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,26%</t>
+          <t>-35,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>-18,77%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-50,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -715,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 666,43</t>
+          <t>-61,88; 647,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 363,46</t>
+          <t>-36,25; 978,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 530,94</t>
+          <t>-73,92; 167,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 245,84</t>
+          <t>-85,12; 117,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 189,13</t>
+          <t>-78,13; 175,28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-54,88; 148,27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-84,87; 33,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,88; 183,38</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>19,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,82</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 17,82</t>
+          <t>-10,63; 22,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 35,17</t>
+          <t>-1,36; 47,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 12,93</t>
+          <t>-6,86; 45,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 7,68</t>
+          <t>-12,58; 22,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 10,72</t>
+          <t>-17,8; 14,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 16,77</t>
+          <t>-12,94; 21,26</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 16,66</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 25,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 27,37</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>120,88%</t>
+          <t>141,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>105,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44,49%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43,59%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 360,86</t>
+          <t>-51,59; 340,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 698,95</t>
+          <t>-11,53; 746,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,59; 71,34</t>
+          <t>-42,1; 643,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 44,51</t>
+          <t>-35,14; 126,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 76,16</t>
+          <t>-53,56; 80,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 107,69</t>
+          <t>-39,28; 120,65</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-31,69; 128,47</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-20,24; 193,51</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 180,32</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-12,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-4,11</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,63</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,9</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-8,07</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 12,62</t>
+          <t>-20,31; 9,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 2,33</t>
+          <t>-19,75; 9,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 9,99</t>
+          <t>-25,62; -0,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 6,25</t>
+          <t>-14,34; 9,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 7,18</t>
+          <t>-14,98; 9,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 1,47</t>
+          <t>-16,02; 8,16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 5,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; 5,23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,77; 0,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-25,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-40,93%</t>
+          <t>-20,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-56,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,88%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,48%</t>
+          <t>-14,18%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-13,77%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-14,8%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-30,63%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,64; 111,33</t>
+          <t>-67,45; 72,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,05; 23,77</t>
+          <t>-67,25; 74,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 41,34</t>
+          <t>-85,32; 1,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 29,49</t>
+          <t>-40,48; 43,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 36,15</t>
+          <t>-41,88; 40,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 9,96</t>
+          <t>-45,94; 37,35</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-42,39; 27,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-45,05; 23,53</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-58,61; 4,44</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-4,66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 12,24</t>
+          <t>-13,71; 13,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 11,31</t>
+          <t>-16,29; 10,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 11,75</t>
+          <t>-5,89; 24,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 8,83</t>
+          <t>-16,73; 9,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,46</t>
+          <t>-19,74; 8,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 6,32</t>
+          <t>-14,84; 10,91</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; 6,58</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 4,84</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 12,32</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>-10,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>-5,89%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-7,6%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-13,82%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 81,89</t>
+          <t>-41,26; 76,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 76,48</t>
+          <t>-47,91; 54,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 39,46</t>
+          <t>-19,48; 124,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 27,42</t>
+          <t>-35,41; 28,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 32,45</t>
+          <t>-41,79; 22,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 23,71</t>
+          <t>-32,2; 33,53</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-32,36; 23,15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-36,5; 17,58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; 43,59</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>18,37</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11,24</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 9,8</t>
+          <t>-16,44; 14,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 4,92</t>
+          <t>-18,35; 13,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 7,94</t>
+          <t>-13,35; 19,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 11,44</t>
+          <t>-16,73; 20,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 6,74</t>
+          <t>-14,04; 25,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 6,38</t>
+          <t>-3,51; 36,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 12,45</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-11,25; 13,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 23,77</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-20,68%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>46,67%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>35,53%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 50,47</t>
+          <t>-50,27; 80,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 26,56</t>
+          <t>-52,64; 77,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 19,38</t>
+          <t>-38,89; 113,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 27,22</t>
+          <t>-34,3; 69,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 21,3</t>
+          <t>-29,84; 88,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 20,63</t>
+          <t>-6,87; 125,09</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,79; 48,6</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-30,59; 50,99</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 95,05</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-16,56</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-19,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-6,97</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-13,38</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 10,45</t>
+          <t>-35,18; 2,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 10,97</t>
+          <t>-39,21; -1,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 11,92</t>
+          <t>-28,48; 14,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 10,09</t>
+          <t>-20,02; 21,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 8,4</t>
+          <t>-31,41; 14,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 6,63</t>
+          <t>-19,53; 27,18</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-21,55; 7,0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-27,25; 2,01</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-18,74; 15,71</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-15,67%</t>
+          <t>-45,46%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-14,45%</t>
+          <t>-52,17%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>-19,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-13,58%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>-16,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-15,43%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-29,6%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 63,09</t>
+          <t>-76,05; 13,3</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 67,83</t>
+          <t>-81,37; -0,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 27,77</t>
+          <t>-62,44; 57,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 21,06</t>
+          <t>-33,28; 53,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 25,01</t>
+          <t>-50,81; 34,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,5; 17,57</t>
+          <t>-33,82; 65,03</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-43,1; 18,55</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-52,96; 5,97</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-37,2; 40,65</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,04</t>
+          <t>-8,59; 5,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 3,53</t>
+          <t>-9,29; 5,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,44</t>
+          <t>-4,09; 12,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 2,9</t>
+          <t>-6,88; 6,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 3,64</t>
+          <t>-10,76; 2,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,64</t>
+          <t>-4,74; 9,78</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 3,43</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 1,7</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 8,27</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-7,95%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-8,71%</t>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-11,82%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 31,64</t>
+          <t>-32,53; 25,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 22,0</t>
+          <t>-36,74; 29,59</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 18,6</t>
+          <t>-16,05; 65,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 9,91</t>
+          <t>-19,31; 20,49</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 14,56</t>
+          <t>-28,83; 7,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 6,8</t>
+          <t>-12,68; 31,74</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-20,42; 12,85</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-27,28; 6,95</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 30,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
